--- a/Datos/Datos VertebradosIbericos/Descripciones Reptiles.xlsx
+++ b/Datos/Datos VertebradosIbericos/Descripciones Reptiles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Hackathon\Hackathon-PNAV\Datos\Datos Reptiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Hackathon\Hackathon-PNAV\Datos\Datos VertebradosIbericos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F949AA0-45FB-447D-A1C2-FB2C7439A106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B2ED99-BE20-4BD3-84C9-E5DCEA5757CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="257">
   <si>
     <t>Common Name</t>
   </si>
@@ -785,6 +785,12 @@
   </si>
   <si>
     <t>Testudo graeca Linnaeus</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>VertebradosIbericos - Reptiles</t>
   </si>
 </sst>
 </file>
@@ -1147,15 +1153,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C85" sqref="C2:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,10 +1169,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1174,10 +1183,13 @@
         <v>254</v>
       </c>
       <c r="C2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1185,10 +1197,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1196,10 +1211,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1207,10 +1225,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1218,10 +1239,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1229,10 +1253,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1240,10 +1267,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1251,10 +1281,13 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1262,10 +1295,13 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1273,10 +1309,13 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1284,10 +1323,13 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1295,10 +1337,13 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1306,10 +1351,13 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1317,10 +1365,13 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1328,10 +1379,13 @@
         <v>45</v>
       </c>
       <c r="C16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1339,10 +1393,13 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1350,10 +1407,13 @@
         <v>51</v>
       </c>
       <c r="C18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1361,10 +1421,13 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1372,10 +1435,13 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -1383,10 +1449,13 @@
         <v>60</v>
       </c>
       <c r="C21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1394,10 +1463,13 @@
         <v>63</v>
       </c>
       <c r="C22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1405,10 +1477,13 @@
         <v>66</v>
       </c>
       <c r="C23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -1416,10 +1491,13 @@
         <v>69</v>
       </c>
       <c r="C24" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -1427,10 +1505,13 @@
         <v>72</v>
       </c>
       <c r="C25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1438,10 +1519,13 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1449,10 +1533,13 @@
         <v>78</v>
       </c>
       <c r="C27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -1460,10 +1547,13 @@
         <v>81</v>
       </c>
       <c r="C28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1471,10 +1561,13 @@
         <v>84</v>
       </c>
       <c r="C29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1482,10 +1575,13 @@
         <v>87</v>
       </c>
       <c r="C30" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -1493,10 +1589,13 @@
         <v>90</v>
       </c>
       <c r="C31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -1504,10 +1603,13 @@
         <v>93</v>
       </c>
       <c r="C32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
@@ -1515,10 +1617,13 @@
         <v>96</v>
       </c>
       <c r="C33" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -1526,10 +1631,13 @@
         <v>99</v>
       </c>
       <c r="C34" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -1537,10 +1645,13 @@
         <v>102</v>
       </c>
       <c r="C35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -1548,10 +1659,13 @@
         <v>105</v>
       </c>
       <c r="C36" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -1559,10 +1673,13 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -1570,10 +1687,13 @@
         <v>111</v>
       </c>
       <c r="C38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>113</v>
       </c>
@@ -1581,10 +1701,13 @@
         <v>114</v>
       </c>
       <c r="C39" t="s">
+        <v>256</v>
+      </c>
+      <c r="D39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -1592,10 +1715,13 @@
         <v>117</v>
       </c>
       <c r="C40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -1603,10 +1729,13 @@
         <v>120</v>
       </c>
       <c r="C41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -1614,10 +1743,13 @@
         <v>123</v>
       </c>
       <c r="C42" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -1625,10 +1757,13 @@
         <v>126</v>
       </c>
       <c r="C43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -1636,10 +1771,13 @@
         <v>129</v>
       </c>
       <c r="C44" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -1647,10 +1785,13 @@
         <v>132</v>
       </c>
       <c r="C45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -1658,10 +1799,13 @@
         <v>135</v>
       </c>
       <c r="C46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -1669,10 +1813,13 @@
         <v>138</v>
       </c>
       <c r="C47" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>140</v>
       </c>
@@ -1680,10 +1827,13 @@
         <v>141</v>
       </c>
       <c r="C48" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -1691,10 +1841,13 @@
         <v>144</v>
       </c>
       <c r="C49" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -1702,10 +1855,13 @@
         <v>147</v>
       </c>
       <c r="C50" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -1713,10 +1869,13 @@
         <v>150</v>
       </c>
       <c r="C51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -1724,10 +1883,13 @@
         <v>153</v>
       </c>
       <c r="C52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -1735,10 +1897,13 @@
         <v>156</v>
       </c>
       <c r="C53" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>158</v>
       </c>
@@ -1746,10 +1911,13 @@
         <v>159</v>
       </c>
       <c r="C54" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -1757,10 +1925,13 @@
         <v>162</v>
       </c>
       <c r="C55" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>164</v>
       </c>
@@ -1768,10 +1939,13 @@
         <v>165</v>
       </c>
       <c r="C56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>167</v>
       </c>
@@ -1779,10 +1953,13 @@
         <v>168</v>
       </c>
       <c r="C57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>170</v>
       </c>
@@ -1790,10 +1967,13 @@
         <v>171</v>
       </c>
       <c r="C58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>173</v>
       </c>
@@ -1801,10 +1981,13 @@
         <v>174</v>
       </c>
       <c r="C59" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -1812,10 +1995,13 @@
         <v>177</v>
       </c>
       <c r="C60" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -1823,10 +2009,13 @@
         <v>180</v>
       </c>
       <c r="C61" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>182</v>
       </c>
@@ -1834,10 +2023,13 @@
         <v>183</v>
       </c>
       <c r="C62" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -1845,10 +2037,13 @@
         <v>186</v>
       </c>
       <c r="C63" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>188</v>
       </c>
@@ -1856,10 +2051,13 @@
         <v>189</v>
       </c>
       <c r="C64" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>191</v>
       </c>
@@ -1867,10 +2065,13 @@
         <v>192</v>
       </c>
       <c r="C65" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>194</v>
       </c>
@@ -1878,10 +2079,13 @@
         <v>195</v>
       </c>
       <c r="C66" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -1889,10 +2093,13 @@
         <v>198</v>
       </c>
       <c r="C67" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>200</v>
       </c>
@@ -1900,10 +2107,13 @@
         <v>201</v>
       </c>
       <c r="C68" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>203</v>
       </c>
@@ -1911,10 +2121,13 @@
         <v>204</v>
       </c>
       <c r="C69" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -1922,10 +2135,13 @@
         <v>207</v>
       </c>
       <c r="C70" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>209</v>
       </c>
@@ -1933,10 +2149,13 @@
         <v>210</v>
       </c>
       <c r="C71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>212</v>
       </c>
@@ -1944,10 +2163,13 @@
         <v>213</v>
       </c>
       <c r="C72" t="s">
+        <v>256</v>
+      </c>
+      <c r="D72" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -1955,10 +2177,13 @@
         <v>216</v>
       </c>
       <c r="C73" t="s">
+        <v>256</v>
+      </c>
+      <c r="D73" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -1966,10 +2191,13 @@
         <v>219</v>
       </c>
       <c r="C74" t="s">
+        <v>256</v>
+      </c>
+      <c r="D74" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -1977,10 +2205,13 @@
         <v>222</v>
       </c>
       <c r="C75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -1988,10 +2219,13 @@
         <v>225</v>
       </c>
       <c r="C76" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>227</v>
       </c>
@@ -1999,10 +2233,13 @@
         <v>228</v>
       </c>
       <c r="C77" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>230</v>
       </c>
@@ -2010,10 +2247,13 @@
         <v>231</v>
       </c>
       <c r="C78" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -2021,10 +2261,13 @@
         <v>234</v>
       </c>
       <c r="C79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>236</v>
       </c>
@@ -2032,10 +2275,13 @@
         <v>237</v>
       </c>
       <c r="C80" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -2043,10 +2289,13 @@
         <v>240</v>
       </c>
       <c r="C81" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>242</v>
       </c>
@@ -2054,10 +2303,13 @@
         <v>243</v>
       </c>
       <c r="C82" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -2065,10 +2317,13 @@
         <v>246</v>
       </c>
       <c r="C83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>248</v>
       </c>
@@ -2076,10 +2331,13 @@
         <v>249</v>
       </c>
       <c r="C84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>251</v>
       </c>
@@ -2087,6 +2345,9 @@
         <v>252</v>
       </c>
       <c r="C85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" t="s">
         <v>253</v>
       </c>
     </row>

--- a/Datos/Datos VertebradosIbericos/Descripciones Reptiles.xlsx
+++ b/Datos/Datos VertebradosIbericos/Descripciones Reptiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\Hackathon\Hackathon-PNAV\Datos\Datos VertebradosIbericos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B2ED99-BE20-4BD3-84C9-E5DCEA5757CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB98FBC-0127-40B0-ABFA-13E1EC2B0645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="257">
-  <si>
-    <t>Common Name</t>
-  </si>
-  <si>
-    <t>Scientific Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="259">
   <si>
     <t>Tortuga mora</t>
   </si>
@@ -787,10 +778,25 @@
     <t>Testudo graeca Linnaeus</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>VertebradosIbericos - Reptiles</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Nombres comunes</t>
+  </si>
+  <si>
+    <t>Nombre aceptado</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Grupo taxonómico</t>
+  </si>
+  <si>
+    <t>Reptiles</t>
   </si>
 </sst>
 </file>
@@ -1153,1202 +1159,1455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C85" sqref="C2:C85"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>256</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>72</v>
       </c>
-      <c r="C25" t="s">
-        <v>256</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="C29" t="s">
-        <v>256</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>87</v>
       </c>
-      <c r="C30" t="s">
-        <v>256</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>90</v>
       </c>
-      <c r="C31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>96</v>
       </c>
-      <c r="C33" t="s">
-        <v>256</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>98</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>102</v>
       </c>
-      <c r="C35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>105</v>
       </c>
-      <c r="C36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C37" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>107</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>108</v>
       </c>
-      <c r="C37" t="s">
-        <v>256</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>110</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>111</v>
       </c>
-      <c r="C38" t="s">
-        <v>256</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" t="s">
+        <v>258</v>
+      </c>
+      <c r="E39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>114</v>
       </c>
-      <c r="C39" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C40" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" t="s">
+        <v>258</v>
+      </c>
+      <c r="E40" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>117</v>
       </c>
-      <c r="C40" t="s">
-        <v>256</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" t="s">
+        <v>258</v>
+      </c>
+      <c r="E41" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>119</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>120</v>
       </c>
-      <c r="C41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>122</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>123</v>
       </c>
-      <c r="C42" t="s">
-        <v>256</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C43" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>126</v>
       </c>
-      <c r="C43" t="s">
-        <v>256</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C44" t="s">
+        <v>252</v>
+      </c>
+      <c r="D44" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>129</v>
       </c>
-      <c r="C44" t="s">
-        <v>256</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" t="s">
+        <v>258</v>
+      </c>
+      <c r="E45" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>131</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>132</v>
       </c>
-      <c r="C45" t="s">
-        <v>256</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>135</v>
       </c>
-      <c r="C46" t="s">
-        <v>256</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>137</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>138</v>
       </c>
-      <c r="C47" t="s">
-        <v>256</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C48" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" t="s">
+        <v>258</v>
+      </c>
+      <c r="E48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>141</v>
       </c>
-      <c r="C48" t="s">
-        <v>256</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>144</v>
       </c>
-      <c r="C49" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D50" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>146</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>147</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D51" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>150</v>
       </c>
-      <c r="C51" t="s">
-        <v>256</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52" t="s">
+        <v>258</v>
+      </c>
+      <c r="E52" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>152</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>153</v>
       </c>
-      <c r="C52" t="s">
-        <v>256</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C53" t="s">
+        <v>252</v>
+      </c>
+      <c r="D53" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>155</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>156</v>
       </c>
-      <c r="C53" t="s">
-        <v>256</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>158</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>159</v>
       </c>
-      <c r="C54" t="s">
-        <v>256</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>161</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>162</v>
       </c>
-      <c r="C55" t="s">
-        <v>256</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C56" t="s">
+        <v>252</v>
+      </c>
+      <c r="D56" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>164</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>165</v>
       </c>
-      <c r="C56" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>167</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>168</v>
       </c>
-      <c r="C57" t="s">
-        <v>256</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C58" t="s">
+        <v>252</v>
+      </c>
+      <c r="D58" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>170</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>171</v>
       </c>
-      <c r="C58" t="s">
-        <v>256</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C59" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>173</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>174</v>
       </c>
-      <c r="C59" t="s">
-        <v>256</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>176</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>177</v>
       </c>
-      <c r="C60" t="s">
-        <v>256</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D61" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>179</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>180</v>
       </c>
-      <c r="C61" t="s">
-        <v>256</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C62" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" t="s">
+        <v>258</v>
+      </c>
+      <c r="E62" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>182</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>183</v>
       </c>
-      <c r="C62" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C63" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>185</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>186</v>
       </c>
-      <c r="C63" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" t="s">
+        <v>258</v>
+      </c>
+      <c r="E64" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>188</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>189</v>
       </c>
-      <c r="C64" t="s">
-        <v>256</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C65" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E65" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>191</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>192</v>
       </c>
-      <c r="C65" t="s">
-        <v>256</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C66" t="s">
+        <v>252</v>
+      </c>
+      <c r="D66" t="s">
+        <v>258</v>
+      </c>
+      <c r="E66" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>194</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>195</v>
       </c>
-      <c r="C66" t="s">
-        <v>256</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C67" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" t="s">
+        <v>258</v>
+      </c>
+      <c r="E67" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>197</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>198</v>
       </c>
-      <c r="C67" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C68" t="s">
+        <v>252</v>
+      </c>
+      <c r="D68" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>200</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>201</v>
       </c>
-      <c r="C68" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C69" t="s">
+        <v>252</v>
+      </c>
+      <c r="D69" t="s">
+        <v>258</v>
+      </c>
+      <c r="E69" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>203</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>204</v>
       </c>
-      <c r="C69" t="s">
-        <v>256</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>206</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>207</v>
       </c>
-      <c r="C70" t="s">
-        <v>256</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>209</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>210</v>
       </c>
-      <c r="C71" t="s">
-        <v>256</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C72" t="s">
+        <v>252</v>
+      </c>
+      <c r="D72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>212</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>213</v>
       </c>
-      <c r="C72" t="s">
-        <v>256</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C73" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>215</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>216</v>
       </c>
-      <c r="C73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C74" t="s">
+        <v>252</v>
+      </c>
+      <c r="D74" t="s">
+        <v>258</v>
+      </c>
+      <c r="E74" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>218</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>219</v>
       </c>
-      <c r="C74" t="s">
-        <v>256</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C75" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>221</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>222</v>
       </c>
-      <c r="C75" t="s">
-        <v>256</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C76" t="s">
+        <v>252</v>
+      </c>
+      <c r="D76" t="s">
+        <v>258</v>
+      </c>
+      <c r="E76" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>224</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>225</v>
       </c>
-      <c r="C76" t="s">
-        <v>256</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C77" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" t="s">
+        <v>258</v>
+      </c>
+      <c r="E77" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>227</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>228</v>
       </c>
-      <c r="C77" t="s">
-        <v>256</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C78" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>230</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>231</v>
       </c>
-      <c r="C78" t="s">
-        <v>256</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C79" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>233</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>234</v>
       </c>
-      <c r="C79" t="s">
-        <v>256</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C80" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80" t="s">
+        <v>258</v>
+      </c>
+      <c r="E80" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>236</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>237</v>
       </c>
-      <c r="C80" t="s">
-        <v>256</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C81" t="s">
+        <v>252</v>
+      </c>
+      <c r="D81" t="s">
+        <v>258</v>
+      </c>
+      <c r="E81" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>239</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>240</v>
       </c>
-      <c r="C81" t="s">
-        <v>256</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C82" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" t="s">
+        <v>258</v>
+      </c>
+      <c r="E82" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>242</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>243</v>
       </c>
-      <c r="C82" t="s">
-        <v>256</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C83" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>245</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>246</v>
       </c>
-      <c r="C83" t="s">
-        <v>256</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C84" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" t="s">
+        <v>258</v>
+      </c>
+      <c r="E84" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>248</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>249</v>
       </c>
-      <c r="C84" t="s">
-        <v>256</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C85" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>251</v>
-      </c>
-      <c r="B85" t="s">
-        <v>252</v>
-      </c>
-      <c r="C85" t="s">
-        <v>256</v>
-      </c>
-      <c r="D85" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>
